--- a/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>42.221682628125052</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>36.868841760000066</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>38.759378698124976</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>46.30736939062507</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>28.920070920000001</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>38.773623217500017</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>25.911466559999951</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>36.474179621249959</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>42.965382812500025</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>36.801669073125083</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>47.822372097500022</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>29.071643040000083</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>40.018403858124941</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>24.832978138124986</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>33.841033440000103</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>44.578153724999993</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>23.28494295750005</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>37.515230999999972</v>
@@ -588,55 +477,55 @@
         <v>26.79819359625003</v>
       </c>
       <c r="AA2">
-        <v>51.582859453125025</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>45.431742564999922</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>37.841986173125008</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>45.375361370624944</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>40.268397332500001</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>33.858069367500036</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>37.570943403749993</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>32.881869221249985</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>45.612408600000037</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>36.333208828124953</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>45.996177377500032</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>40.477745694375017</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>35.186674998124943</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>31.556935828125006</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>37.443006285000081</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>32.08807139999999</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>34.665075633125014</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>39.091282295625035</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>43.008758203124955</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>41.876630085000045</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>28.637850000000071</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>34.585367259999998</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>29.060345266874947</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>33.584599687500088</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>34.226804965000042</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>30.782306406249972</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>41.562012133124995</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>22.566640958125049</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>38.349911692499973</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>36.636839155624955</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>34.57344337125005</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>20.167593688124953</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>34.698136460624937</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>29.683234743750006</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>38.205168322500015</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>31.357399657500082</v>
@@ -743,55 +629,55 @@
         <v>22.165197559999967</v>
       </c>
       <c r="AA3">
-        <v>51.474571200000014</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>45.10626375375</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>45.908019900000056</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>50.974138125000025</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>39.599824451875008</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>42.402159450000056</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>39.181460940000079</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>41.85819884</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>51.831067578125101</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>47.828975507499933</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>56.944637282500025</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>37.172364697499972</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>35.947099781250074</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>35.443980539999927</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>45.374408248125064</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>32.620694400000048</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>31.312421040000004</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>40.27208792062487</v>

--- a/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42.221682628125052</v>
+        <v>24.832978138124986</v>
       </c>
       <c r="C2">
-        <v>36.868841760000066</v>
+        <v>23.28494295750005</v>
       </c>
       <c r="D2">
-        <v>38.759378698124976</v>
+        <v>31.556935828125006</v>
       </c>
       <c r="E2">
-        <v>46.30736939062507</v>
+        <v>34.665075633125014</v>
       </c>
       <c r="F2">
         <v>28.920070920000001</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>43.008758203124955</v>
+        <v>20.167593688124953</v>
       </c>
       <c r="C3">
-        <v>41.876630085000045</v>
+        <v>38.205168322500015</v>
       </c>
       <c r="D3">
-        <v>28.637850000000071</v>
+        <v>35.443980539999927</v>
       </c>
       <c r="E3">
-        <v>34.585367259999998</v>
+        <v>31.535374552500002</v>
       </c>
       <c r="F3">
         <v>29.060345266874947</v>

--- a/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42.221682628125052</v>
+        <v>40.018403858124941</v>
       </c>
       <c r="C2">
-        <v>36.868841760000066</v>
+        <v>24.832978138124986</v>
       </c>
       <c r="D2">
-        <v>38.759378698124976</v>
+        <v>35.186674998124943</v>
       </c>
       <c r="E2">
-        <v>46.30736939062507</v>
+        <v>31.556935828125006</v>
       </c>
       <c r="F2">
         <v>28.920070920000001</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>43.008758203124955</v>
+        <v>34.57344337125005</v>
       </c>
       <c r="C3">
-        <v>41.876630085000045</v>
+        <v>20.167593688124953</v>
       </c>
       <c r="D3">
-        <v>28.637850000000071</v>
+        <v>35.947099781250074</v>
       </c>
       <c r="E3">
-        <v>34.585367259999998</v>
+        <v>35.443980539999927</v>
       </c>
       <c r="F3">
         <v>29.060345266874947</v>

--- a/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_leg_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>40.018403858124941</v>
+        <v>42.221682628125052</v>
       </c>
       <c r="C2">
-        <v>24.832978138124986</v>
+        <v>36.868841760000066</v>
       </c>
       <c r="D2">
-        <v>35.186674998124943</v>
+        <v>38.759378698124976</v>
       </c>
       <c r="E2">
-        <v>31.556935828125006</v>
+        <v>46.30736939062507</v>
       </c>
       <c r="F2">
         <v>28.920070920000001</v>
@@ -668,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34.57344337125005</v>
+        <v>43.008758203124955</v>
       </c>
       <c r="C3">
-        <v>20.167593688124953</v>
+        <v>41.876630085000045</v>
       </c>
       <c r="D3">
-        <v>35.947099781250074</v>
+        <v>28.637850000000071</v>
       </c>
       <c r="E3">
-        <v>35.443980539999927</v>
+        <v>34.585367259999998</v>
       </c>
       <c r="F3">
         <v>29.060345266874947</v>
